--- a/Tag_Information/tags.xlsx
+++ b/Tag_Information/tags.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Jars</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>trunk caBIG</t>
+  </si>
+  <si>
+    <t>caGRIDDataExtension</t>
+  </si>
+  <si>
+    <t>caGRID_v12_DATAEXTENSION</t>
+  </si>
+  <si>
+    <t>caTISSUE_SUITE_v112_CAGRIDDATAEXTENSION</t>
   </si>
 </sst>
 </file>
@@ -269,13 +278,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -714,6 +724,17 @@
       </c>
       <c r="C13" s="5" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Tag_Information/tags.xlsx
+++ b/Tag_Information/tags.xlsx
@@ -171,9 +171,6 @@
     <t>Dependent Project</t>
   </si>
   <si>
-    <t>caTISSUE_SUITE_v112_24_JUN_2009</t>
-  </si>
-  <si>
     <t>CaCoreSDK_3_2_1</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>caTISSUE_SUITE_v112_CAGRIDDATAEXTENSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_v112_09_JUL_2009 </t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -701,40 +701,40 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -871,13 +871,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
